--- a/data/outputs/excel/ai_likeness_report.xlsx
+++ b/data/outputs/excel/ai_likeness_report.xlsx
@@ -472,11 +472,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The response shows several AI‑style characteristics: a very clear three‑part structure (introduction, body, conclusion) that feels almost textbook‑like; frequent use of generic, positive phrasing such as "giúp kiến thức trở nên sống động" and "khắc sâu kiến thức"; a uniform sentence length and consistent vocabulary that lack the natural variation seen in human writing; and a highly templated example that mirrors common instructional content, which is also reflected in the moderate similarity scores (ai_similarity_score 0.35, peer_similarity_score 0.31). These factors together suggest a moderate likelihood that the answer was generated from an AI template rather than written entirely by a student.</t>
+          <t>The response exhibits several AI‑like characteristics. It follows a rigid structure with a clear introduction, body and conclusion, and the transition phrases feel formulaic. Frequent use of generic positive wording such as "kết quả thực tế" and “được thực hành” aligns with common AI templates. The sentence lengths and vocabulary are relatively uniform, lacking the natural variation seen in human writing. Moreover, the concrete example of the science activity is a classic, textbook‑style illustration that many students tend to replicate, which is reflected in the peer similarity score. While not entirely machine‑generated, these patterns suggest a strong AI influence, justifying a score of about 0.68.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,11 +497,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The answer shows a moderate level of structure and repetition typical of template‑style writing, but the low AI similarity score (0.22) and low peer similarity (0.27) suggest it is not strongly derived from a known AI model or from other students. The symbolic_score of 1.00 indicates a high density of numeric and symbolic content, which can be common in AI‑generated instructional outlines, yet the overall language flow and lack of overt AI‑style phrasing keep the likelihood of a purely AI‑generated template moderate.</t>
+          <t>The response shows a relatively organized structure with clear subsections, but it contains many natural, student‑like elements (e.g., Vietnamese text, classroom context). It lacks the highly formulaic phrasing or perfect grammar typical of AI‑generated templates. The symbolic score of 1.0 indicates a high use of symbols and bullet points, a common feature in structured AI outputs, yet the overall wording and examples remain fairly typical and not strongly indicative of a template. The AI similarity score (0.22) and peer similarity (0.27) are modest, suggesting limited overlap with known AI or peer answers. Therefore, the likelihood of this being a template‑style AI response is moderate, around 0.35.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -524,11 +524,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The response shows a highly organized structure with clear headings, numbered sections, and bullet points, which is characteristic of AI-generated templates. The language contains several generic, positive‑bias phrases such as "Rèn kỹ năng tư duy logic, giải quyết vấn đề" and "Kết luận: …" that are commonly used by AI to signal completeness. The stylistic uniformity—consistent sentence length, repeated use of the same phrasing patterns, and a formal register—suggests a template rather than a personalized student voice. Additionally, the moderate similarity scores (ai_similarity_score 0.35, peer_similarity_score 0.37) indicate that while the content is not identical to known AI or peer answers, it shares enough common structure and wording to raise suspicion. The symbolic_score of 1.00 further reflects a high density of formatting symbols (numbers, bullets, colons), a hallmark of AI‑generated outlines. Overall, these factors point to a moderate to high likelihood that the answer was produced by a generative AI template.</t>
+          <t>The answer exhibits a very rigid, textbook‑like structure with clear headings (Kế hoạch dạy học, Các hoạt động chính, ...), repeated bullet points, and a conventional lesson‑plan format that is typical of AI‑generated templates. The language is uniformly formal and lacks stylistic variation—sentences are similar in length and word choice, which is another hallmark of AI output. The content itself is generic and aligns closely with common instructional examples, leading to a moderate similarity with other students' responses (peer_similarity_score 0.37) but a higher similarity to an AI model (ai_similarity_score 0.35). Additionally, the symbolic_score of 1.00 indicates a perfect match to known AI template patterns. Combined, these factors suggest a fairly high likelihood that the answer is a template‑style generation from an AI, hence a score of 0.68.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The response shows a fairly rigid structure with a clear introduction, body, and conclusion, which is typical of AI-generated templates. It contains several generic, positive‑bias phrases such as "điều quan trọng không phải là làm đẹp" and "đừng sợ sai", which are common in AI outputs. The style is quite uniform: sentences are of similar length, and the vocabulary is repetitive, lacking the natural variation seen in human writing. Additionally, the examples provided (e.g., building a fish from cardboard) are generic and likely appear in many other students’ answers, as indicated by the moderate peer similarity score. While the AI similarity score is only 0.30, the high symbolic score and the overall pattern of the text suggest a moderate likelihood that this is a template‑based AI answer.</t>
+          <t>構造化が明確で序論・本論・結論が整いすぎている点、AIが好む定型表現（"…こうして、…" や "…に挑戦しよう" など）が頻出し、文体も同質的で長文のパターンが多い。さらに、具体例が一般的すぎて他の学生と類似しており、AIテンプレート的な特徴が強く出ているため、完全に人間らしいとは言い難い。</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -574,11 +574,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>構造化がやや整っており、序論・本論・結論の区分が明確に示されている点はAIがよく用いるパターンに近い。定型表現（例：『Nâng cao kỹ năng tư duy thiết kế』、『Tái chế, bảo vệ môi trường』）やポジティブバイアスが散見され、文体の均一性も比較的高い。具体例は一般的な教材内容であり、他の学生と類似しやすい典型的な構成であるため、peer_similarity_scoreも中程度。総合すると、完全にAIっぽいわけではないが、テンプレート的な傾向があると判断し、0.42と評価した。</t>
+          <t>構造化がやや整っているものの、序論・本論・結論の明確な区分はなく、ほぼ列挙型の構成である。定型表現（"Khởi động"、"Khám phá"、"Luyện tập"など）はAI的なパターンが見られるが、同時に一般的な教材用語であるためポジティブバイアスは限定的。文体は均一で、長文が多いものの語彙は限定的で機械的な印象を与える。具体例（交通手段・動物のリスト）は典型的で、他学生と似た内容が多い。これらを総合すると、AI生成テンプレート的解答の可能性は中程度（0.45）と判断する。</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -601,11 +601,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The response shows a clear, almost textbook structure with a distinct introduction, body, and conclusion, which is a hallmark of AI-generated templates. It uses several generic, positive‑bias phrases such as "đây là cách học giúp các em vừa hứng thú, vừa ghi nhớ" that are frequently found in AI outputs. The sentence lengths and vocabulary choices are fairly uniform, lacking the natural variation typical of human writing. The example of planting beans is a common, textbook illustration that many students might use, indicating a somewhat stereotypical scenario. While the AI similarity score (0.37) and peer similarity score (0.31) are moderate, the symbolic score of 1.00 suggests a high presence of formal, symbolic patterns typical of AI-generated text. Overall, these factors point to a moderate likelihood that the answer is a templated AI output.</t>
+          <t>The response shows a modest degree of AI‑like characteristics. It is reasonably well‑structured with an opening statement, a main body, and an illustrative example, which is a typical pattern for AI‑generated answers. The phrasing is somewhat formal and contains a few repeated expressions that could be indicative of a templated style, but it is not overly rigid. The vocabulary and sentence length are fairly uniform, and the example of students planting beans is a generic scenario that many students might use, reflecting some peer similarity. The symbolic_score of 1.0 suggests a high density of formal markers, yet the overall content remains natural and context‑appropriate. Thus the likelihood of this being a template‑based AI answer is moderate, leading to a score of 0.4.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -626,11 +626,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>構造化は序論・本論・結論が明確に区分されており、AIがよく用いるテンプレート的な構成に近い。定型表現として「được tôi thực hiện」「đúng với tinh thần giáo dục STEAM」など、ポジティブバイアスが散見される。文体は比較的均一で、語彙の幅が限定的である点もAIらしさを示唆する。具体例は一般的なクラス活動の説明であり、他の学生と類似度が低いものの、典型的な内容が多いため、完全に人間らしい創造性はやや不足している。総合的に見て、AI生成の可能性は中程度と判断。</t>
+          <t>回答は序論・本論・結論が明確に区分され、語彙が統一されているため構造化が強く、AIが好むテンプレート構成に近い。定型表現（「hình ảnh minh họa」「đúng với tinh thần giáo dục STEAM」など）が多用され、ポジティブバイアスが感じられる。文の長さや語彙の選び方に均一性があり、他の学生と類似した具体例（学級のルールや共有活動）が示されている点もAIがよく作る典型的な例と重なる。AI類似度が0.25、仲間間類似度が0.27で、完全に人間らしい独自性は低めだが、完全にAIであるとは言い切れないため、0.45という中程度のスコアと判断した。</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>構造化: 回答は序論・本論・結論が明確に区分されており、段落ごとに目的・手順・評価が整理されている点でAIが生成するテンプレート的な構成に近い。定型表現: 「Tôi cùng học sinh giải mã」「Mỗi nhóm sẽ được cung cấp」「Thảo luận và cải tiến」など、教育関連のAI回答で頻繁に見られるフレーズが散見される。文体の均一性: 文長はほぼ均一で、語彙も比較的限定的（例: "đề", "bài", "độ", "điểm"など）で、自然な人間の多様な表現よりも統一感が強い。具体例の典型的すぎる点: 3メートルからの落下という設定や、紙・段ボール・ゴムバンドなどの素材リストは多くの学生が採用しやすい標準的な例で、peer_similarity_score が 0.37 であることから他の回答と類似している可能性がある。総合すると、AIが生成したテンプレート的回答の可能性は中程度（約0.55）と判断できる。</t>
+          <t>The answer contains a very clear, modular structure with a distinct opening, body, and closing, which is typical of AI-generated templates. The phrasing includes frequent positive-bias expressions such as "đạt hiệu quả", "hợp lý", and "đầy sáng tạo", common in AI outputs. The style is uniform throughout: sentences are of similar length, and the vocabulary is repetitive, lacking the natural variation seen in human writing. Moreover, the examples and activity descriptions are generic and align closely with common lesson‑plan templates, reflected in the moderate AI and peer similarity scores (0.37 each) and a high symbolic score of 1.0 indicating strong adherence to formal writing patterns. Overall, these features suggest a moderate likelihood that the answer was produced by a generative AI.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>回答は序論・本論・結論が明確に区分され、同じような構造が繰り返されている点がAI的に見られます。さらに、"Đây là một vài ví dụ" や "mỗi bạn đều có thể có một cách làm khác" などの定型表現が多用され、ポジティブバイアスが強く感じられます。文体は比較的均一で、語彙の幅が狭く、文長もほぼ同じ傾向にあります。具体例として挙げられている内容は、他の学生の回答と重複しやすい典型的なものが多く、peer_similarity_score が 0.38 であることから、他者と似たパターンが見られます。これらの要素を総合すると、完全にAI生成ではないものの、テンプレート的なAI回答の可能性は中程度（約0.55）と判断されます。</t>
+          <t>構造化が非常に整っており、序論・本論・結論が明確に区切られている点がAI的。定型表現（"đây là một vài ví dụ", "mỗi bạn đều có thể..." 等）が頻出し、ポジティブバイアスの言い回しが多い。文体の均一性も高く、句読点や語彙の幅が限定的で文長がほぼ同一である。具体例はSTEAM教育における一般的な指導法を網羅しており、他の学生の回答と類似する要素が多いため、他者と重複しやすい。これらの特徴はAIが生成するテンプレート回答とよく合致する。</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -701,11 +701,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The response is highly organized with distinct sections (introduction, activity, skills, cross‑disciplinary links) and uses bullet points, which is a hallmark of AI‑generated templates. The low AI similarity score (0.25) and moderate peer similarity (0.33) indicate that the content is not a direct copy of a known AI answer and shares some common ideas with other students, suggesting originality. The language is uniform—sentences are of similar length and vocabulary is repeated—supporting a template feel. However, the specific example of making a pencil case from recycled plastic bottles is a typical, widely used teaching scenario, not a unique AI invention. Overall, these factors point to a moderate likelihood of AI influence, hence a score of 0.45.</t>
+          <t>構造化: 回答は序論・本論・結論が極めて明確に区分され、章立てと箇条書きで整った構造を示しているため、AIのテンプレート化が疑われる。 定型表現: 例として「Mục tiêu: Học sinh hiểu được lợi ích…」「Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp; giải quyết vấn đề」など、AIがよく使用するフレーズやポジティブバイアス的表現が多い。 文体の均一性: 文章の長さや語彙は比較的一様で、専門用語や慣用表現が少なく、全体的にテンプレート的な文体が目立つ。 具体例の典型的すぎる点: 具体例は「Làm hộp bút từ chai nhựa cũ」という共通テーマで、他の学生の回答と類似度が0.33と示されているように、内容が典型的であるため、生成AIの一般的な例題に近い。 以上の点から、AIが書いた可能性は中程度に高いと判断し、スコアを0.6としました。</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
